--- a/admin/Exportfile/doc_xlsxflie/ประวัติการรักษา.xlsx
+++ b/admin/Exportfile/doc_xlsxflie/ประวัติการรักษา.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp\htdocs\main_project3\admin\Exportfile\doc_xlsxflie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3BD3D55-95B0-40FB-939A-798A50432DAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83505585-27EC-4109-9D1C-243635AB55C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3600" yWindow="2865" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -403,7 +403,7 @@
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" x14ac:dyDescent="0.55000000000000004"/>
@@ -445,7 +445,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C&amp;"TH SarabunPSK,ตัวหนา"&amp;18ใบสรุปผลรายละเอียดเวชภัณฑ์ ยา และอุปกรณ์ทางการแพทย์</oddHeader>
+    <oddHeader>&amp;C&amp;"TH SarabunPSK,ตัวหนา"&amp;18ประวัติการรักษา</oddHeader>
   </headerFooter>
 </worksheet>
 </file>